--- a/Defect tracking log.xlsx
+++ b/Defect tracking log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Desktop\Business-62-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D60922C5-8DFB-475C-98F5-CF152A0A8349}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5170F4B-C7B5-4730-AC78-493036C3EA8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="87">
   <si>
     <t>Defect Tracking Log</t>
   </si>
@@ -106,10 +106,6 @@
     <t>NF_014</t>
   </si>
   <si>
-    <t>The website is not displaying 'Login' button on 
-IOS - iPhone X</t>
-  </si>
-  <si>
     <t>NF_015</t>
   </si>
   <si>
@@ -152,9 +148,6 @@
     <t>B6FPS-12</t>
   </si>
   <si>
-    <t>After logging in then navigating away from the website you remain logged in upon a revisit. This is a potential security vulnerabilityIOS - iPhone X</t>
-  </si>
-  <si>
     <t>B6FPS-13</t>
   </si>
   <si>
@@ -258,15 +251,60 @@
   </si>
   <si>
     <t>E_001</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Trivial</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>The website is not displaying 'Login' button on</t>
+  </si>
+  <si>
+    <t>IOS - iPhone X</t>
+  </si>
+  <si>
+    <t>minor</t>
+  </si>
+  <si>
+    <t>trivial</t>
+  </si>
+  <si>
+    <t>After logging in then navigating away from the website you remain logged in upon a revisit. This is a potential security vulnerability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critical </t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Able to input negative and invalid phone numbers for employee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]dd\-mmm\-yy;@"/>
-  </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -274,25 +312,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="28"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -317,11 +336,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF172B4D"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -339,6 +353,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -349,12 +389,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -523,32 +563,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -582,113 +596,194 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1093,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9385FAC-DC8B-4542-B1A1-9092BA353132}">
-  <dimension ref="B2:G26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,444 +1204,612 @@
     <col min="7" max="7" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:7" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="39"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="11">
         <v>44387</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="26" t="s">
+      <c r="F7" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="14">
         <v>44387</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="27" t="s">
+      <c r="F8" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="14">
+        <v>44387</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="14">
+        <v>44387</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="14">
+        <v>44387</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="33">
+        <v>44388</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="14">
+        <v>44388</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="14">
+        <v>44388</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="14">
+        <v>44388</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="14">
+        <v>44388</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="14">
+        <v>44388</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="14">
+        <v>44388</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="14">
+        <v>44388</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="14">
+        <v>44389</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="14">
+        <v>44389</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="14">
+        <v>44389</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="15" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="20">
-        <v>44387</v>
-      </c>
-      <c r="D9" s="21" t="s">
+      <c r="G23" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="14">
+        <v>44389</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="14">
+        <v>44389</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="14">
+        <v>44389</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="22">
+        <v>44389</v>
+      </c>
+      <c r="D27" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="20">
-        <v>44387</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="20">
-        <v>44387</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="20">
-        <v>44388</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="20">
-        <v>44388</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="20">
-        <v>44388</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="20">
-        <v>44388</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="20">
-        <v>44388</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="20">
-        <v>44388</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="20">
-        <v>44388</v>
-      </c>
-      <c r="D18" s="22" t="s">
+      <c r="E27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B19" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="20">
-        <v>44388</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="30"/>
-    </row>
-    <row r="20" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B20" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="20">
-        <v>44389</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="20">
-        <v>44389</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="20">
-        <v>44389</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B23" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="20">
-        <v>44389</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="20">
-        <v>44389</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="20">
-        <v>44389</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="30" t="s">
+      <c r="F27" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" s="24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="24">
-        <v>44389</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="31" t="s">
-        <v>67</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B3:G3"/>
+  <mergeCells count="11">
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" display="https://spartaglobal.atlassian.net/browse/B6FPS-3" xr:uid="{CBD11101-A48C-47F5-B287-1FF962CDFFC3}"/>
-    <hyperlink ref="B8" r:id="rId2" display="https://spartaglobal.atlassian.net/browse/B6FPS-4" xr:uid="{50F1780D-5AC2-4FB7-9DBC-5A6DF0B17B65}"/>
-    <hyperlink ref="B9" r:id="rId3" display="https://spartaglobal.atlassian.net/browse/B6FPS-5" xr:uid="{CE545378-B92F-4330-9D04-286BD7DFF006}"/>
-    <hyperlink ref="B10" r:id="rId4" display="https://spartaglobal.atlassian.net/browse/B6FPS-6" xr:uid="{4B696878-BAE7-48CB-81DE-62EFB89BE282}"/>
-    <hyperlink ref="B11" r:id="rId5" display="https://spartaglobal.atlassian.net/browse/B6FPS-8" xr:uid="{37DAD883-F98E-44E2-A22C-6836AD4C6E18}"/>
-    <hyperlink ref="B12" r:id="rId6" display="https://spartaglobal.atlassian.net/browse/B6FPS-9" xr:uid="{FAED7202-B9C8-42F8-A3F0-BBC9CED66910}"/>
-    <hyperlink ref="B13" r:id="rId7" display="https://spartaglobal.atlassian.net/browse/B6FPS-10" xr:uid="{7AEFD059-1AA8-468F-BB79-BE10A74F576A}"/>
-    <hyperlink ref="B14" r:id="rId8" xr:uid="{C223CEF6-08F9-403D-B695-C939165754BD}"/>
-    <hyperlink ref="B15" r:id="rId9" xr:uid="{470B09E5-9988-4066-B98E-C3DEAF017443}"/>
-    <hyperlink ref="B17" r:id="rId10" display="B6FPS-10" xr:uid="{6131A377-865C-4339-9325-15DB3DE2E186}"/>
-    <hyperlink ref="B16" r:id="rId11" xr:uid="{E9DDB790-A325-4DEB-B272-D2F09C634EF5}"/>
-    <hyperlink ref="B18" r:id="rId12" xr:uid="{2CC5A0B0-FF7E-4085-A26C-F5F0EE7CF4BF}"/>
-    <hyperlink ref="B19" r:id="rId13" xr:uid="{F89B75DB-D4E1-4DF9-AC27-682B48DBC402}"/>
-    <hyperlink ref="B20" r:id="rId14" xr:uid="{B3B4F766-3556-43E7-9A32-3744FE3542C4}"/>
-    <hyperlink ref="B22" r:id="rId15" xr:uid="{F8847836-421A-4B82-B815-A620F33D7D8D}"/>
-    <hyperlink ref="B21" r:id="rId16" xr:uid="{FB2F16E5-EDFE-4931-8125-55E6D2F9A0CF}"/>
-    <hyperlink ref="B23" r:id="rId17" xr:uid="{B53D2F26-569D-4F15-A980-E30217AABBF8}"/>
-    <hyperlink ref="B24" r:id="rId18" xr:uid="{86369439-17A8-4565-9521-48886C50F16A}"/>
-    <hyperlink ref="B25" r:id="rId19" xr:uid="{864552E8-F328-4DA1-B3AD-B5F146A956F3}"/>
-    <hyperlink ref="B26" r:id="rId20" xr:uid="{E56046F8-887E-42B5-A5C0-CB88EED6603C}"/>
+    <hyperlink ref="B7" r:id="rId1" display="https://spartaglobal.atlassian.net/browse/B6FPS-3" xr:uid="{A6A8A9C0-08B5-482B-8E3D-1627FEE39530}"/>
+    <hyperlink ref="B8" r:id="rId2" display="https://spartaglobal.atlassian.net/browse/B6FPS-4" xr:uid="{95FEB818-7A7F-45F0-8810-539BF36717AE}"/>
+    <hyperlink ref="B9" r:id="rId3" display="https://spartaglobal.atlassian.net/browse/B6FPS-5" xr:uid="{0775C960-E91A-4044-909B-E362B61951CC}"/>
+    <hyperlink ref="B10" r:id="rId4" display="https://spartaglobal.atlassian.net/browse/B6FPS-6" xr:uid="{0A403CC2-30B2-49ED-9B60-CF52264F6D95}"/>
+    <hyperlink ref="B11" r:id="rId5" display="https://spartaglobal.atlassian.net/browse/B6FPS-8" xr:uid="{28B01585-8C89-47DF-8103-9AB835A41B27}"/>
+    <hyperlink ref="B12" r:id="rId6" display="https://spartaglobal.atlassian.net/browse/B6FPS-9" xr:uid="{09E8B72F-2D57-47C1-B6F9-A97E02FD2D71}"/>
+    <hyperlink ref="B14" r:id="rId7" display="https://spartaglobal.atlassian.net/browse/B6FPS-10" xr:uid="{9192F3C7-3288-4C4D-9DFC-CFD34ABDC1BD}"/>
+    <hyperlink ref="B15" r:id="rId8" display="https://spartaglobal.atlassian.net/browse/B6FPS-11" xr:uid="{F34C36A0-1C4B-4AAC-99B9-90C6AB548F0A}"/>
+    <hyperlink ref="B16" r:id="rId9" display="https://spartaglobal.atlassian.net/browse/B6FPS-12" xr:uid="{DFC08702-B1A3-4AB0-AF36-EEED3507569C}"/>
+    <hyperlink ref="B17" r:id="rId10" display="https://spartaglobal.atlassian.net/browse/B6FPS-13" xr:uid="{A200D8E6-0359-43A3-AAD7-6CA45B950C71}"/>
+    <hyperlink ref="B18" r:id="rId11" display="https://spartaglobal.atlassian.net/browse/B6FPS-14" xr:uid="{0B92B7F3-2174-4EA8-A734-28A145E50AB8}"/>
+    <hyperlink ref="B19" r:id="rId12" display="https://spartaglobal.atlassian.net/browse/B6FPS-15" xr:uid="{760E57DC-F865-49C0-83FE-85462A42F31B}"/>
+    <hyperlink ref="B20" r:id="rId13" display="https://spartaglobal.atlassian.net/browse/B6FPS-16" xr:uid="{A130CDAC-F699-4129-8161-F34CEA6C69C5}"/>
+    <hyperlink ref="B21" r:id="rId14" display="https://spartaglobal.atlassian.net/browse/B6FPS-17" xr:uid="{616F1A20-88EB-48F7-9DE3-0CB13E8E400F}"/>
+    <hyperlink ref="B22" r:id="rId15" display="https://spartaglobal.atlassian.net/browse/B6FPS-18" xr:uid="{CE21B81F-2823-48CD-B083-7618E8777770}"/>
+    <hyperlink ref="B23" r:id="rId16" display="https://spartaglobal.atlassian.net/browse/B6FPS-19" xr:uid="{41597EE2-D20F-4202-A440-860FDA5841E6}"/>
+    <hyperlink ref="B24" r:id="rId17" display="https://spartaglobal.atlassian.net/browse/B6FPS-20" xr:uid="{B33B3EF9-8913-4A48-BD84-C42582FC506B}"/>
+    <hyperlink ref="B25" r:id="rId18" display="https://spartaglobal.atlassian.net/browse/B6FPS-21" xr:uid="{AE1625AC-FDE8-4D6C-BB6D-B90E05557CA9}"/>
+    <hyperlink ref="B26" r:id="rId19" display="https://spartaglobal.atlassian.net/browse/B6FPS-22" xr:uid="{1D18FE3C-CCB4-4464-A859-065AAA037F91}"/>
+    <hyperlink ref="B27" r:id="rId20" xr:uid="{BDEF41A2-FDCE-46ED-A4E5-2AB347DF2CB8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId21"/>
@@ -1554,6 +1817,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005EB9DAFD5A3BE841A8C512EE543EFD13" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d6c4d20c3715ec357b2d0b1c18679b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6292cffe-a264-48cd-a2c8-65350280a8ba" xmlns:ns3="91af20cc-6020-4279-8abf-0ebc48e99448" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7b3426d6349095b1800821f3addfe153" ns2:_="" ns3:_="">
     <xsd:import namespace="6292cffe-a264-48cd-a2c8-65350280a8ba"/>
@@ -1782,16 +2054,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64D24B5C-96C5-4BB7-AA34-68C3FD16CA60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C224ABDD-970A-440D-AC88-F68BBF2E438C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1808,12 +2079,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64D24B5C-96C5-4BB7-AA34-68C3FD16CA60}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Defect tracking log.xlsx
+++ b/Defect tracking log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Desktop\Business-62-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5170F4B-C7B5-4730-AC78-493036C3EA8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE23F93-D8D7-4805-A126-FAC695C00F79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="91">
   <si>
     <t>Defect Tracking Log</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Address is not shown, Random text shown instead in the address section</t>
   </si>
   <si>
-    <t>F_001C,  F_001E,  F_001F</t>
-  </si>
-  <si>
     <t>Liam</t>
   </si>
   <si>
@@ -299,6 +296,21 @@
   </si>
   <si>
     <t>Able to input negative and invalid phone numbers for employee</t>
+  </si>
+  <si>
+    <t>B6FPS-24</t>
+  </si>
+  <si>
+    <t>Natasha</t>
+  </si>
+  <si>
+    <t>When on the employee page there isn’t an option to add new video’s to the stores stock</t>
+  </si>
+  <si>
+    <t>F_001_1C,  F_001_1E,  F_001_1F</t>
+  </si>
+  <si>
+    <t>F_014_1C, F_014_1E, F_014_1F</t>
   </si>
 </sst>
 </file>
@@ -394,7 +406,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -418,97 +430,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -521,32 +443,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -584,49 +480,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -654,10 +511,217 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FFA6A6A6"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -667,58 +731,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -727,64 +755,113 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1188,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9385FAC-DC8B-4542-B1A1-9092BA353132}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="68" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,580 +1279,649 @@
     <col min="5" max="5" width="28.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="25" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="39"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-    </row>
-    <row r="6" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="10" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="23">
+        <v>44387</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="G7" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5">
         <v>44387</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="E8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5">
+        <v>44387</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5">
+        <v>44387</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="5">
+        <v>44387</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="40"/>
+      <c r="B12" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="14">
+        <v>44388</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="45"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="40"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="45"/>
+    </row>
+    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="5">
+        <v>44388</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="5">
+        <v>44388</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="5">
+        <v>44388</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="5">
+        <v>44388</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="5">
+        <v>44388</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="5">
+        <v>44388</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="5">
+        <v>44388</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="31"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="5">
+        <v>44389</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="5">
+        <v>44389</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="5">
+        <v>44389</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="5">
+        <v>44389</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="5">
+        <v>44389</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="H25" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="5">
+        <v>44389</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="14">
-        <v>44387</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="14">
-        <v>44387</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="15" t="s">
+      <c r="G26" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="9">
+        <v>44389</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="14">
-        <v>44387</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="14">
-        <v>44387</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="33">
-        <v>44388</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="38"/>
-    </row>
-    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="14">
-        <v>44388</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="14">
-        <v>44388</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="14">
-        <v>44388</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="19" t="s">
+      <c r="H27" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="36">
+        <v>44389</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="G28" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="14">
-        <v>44388</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="14">
-        <v>44388</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="14">
-        <v>44388</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="14">
-        <v>44388</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20" s="21"/>
-    </row>
-    <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="14">
-        <v>44389</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="14">
-        <v>44389</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="14">
-        <v>44389</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="14">
-        <v>44389</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="14">
-        <v>44389</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="14">
-        <v>44389</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="22">
-        <v>44389</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>65</v>
-      </c>
+      <c r="H28" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="I12:I13"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="A12:A13"/>
@@ -1783,49 +1929,37 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" display="https://spartaglobal.atlassian.net/browse/B6FPS-3" xr:uid="{A6A8A9C0-08B5-482B-8E3D-1627FEE39530}"/>
-    <hyperlink ref="B8" r:id="rId2" display="https://spartaglobal.atlassian.net/browse/B6FPS-4" xr:uid="{95FEB818-7A7F-45F0-8810-539BF36717AE}"/>
-    <hyperlink ref="B9" r:id="rId3" display="https://spartaglobal.atlassian.net/browse/B6FPS-5" xr:uid="{0775C960-E91A-4044-909B-E362B61951CC}"/>
-    <hyperlink ref="B10" r:id="rId4" display="https://spartaglobal.atlassian.net/browse/B6FPS-6" xr:uid="{0A403CC2-30B2-49ED-9B60-CF52264F6D95}"/>
-    <hyperlink ref="B11" r:id="rId5" display="https://spartaglobal.atlassian.net/browse/B6FPS-8" xr:uid="{28B01585-8C89-47DF-8103-9AB835A41B27}"/>
-    <hyperlink ref="B12" r:id="rId6" display="https://spartaglobal.atlassian.net/browse/B6FPS-9" xr:uid="{09E8B72F-2D57-47C1-B6F9-A97E02FD2D71}"/>
-    <hyperlink ref="B14" r:id="rId7" display="https://spartaglobal.atlassian.net/browse/B6FPS-10" xr:uid="{9192F3C7-3288-4C4D-9DFC-CFD34ABDC1BD}"/>
-    <hyperlink ref="B15" r:id="rId8" display="https://spartaglobal.atlassian.net/browse/B6FPS-11" xr:uid="{F34C36A0-1C4B-4AAC-99B9-90C6AB548F0A}"/>
-    <hyperlink ref="B16" r:id="rId9" display="https://spartaglobal.atlassian.net/browse/B6FPS-12" xr:uid="{DFC08702-B1A3-4AB0-AF36-EEED3507569C}"/>
-    <hyperlink ref="B17" r:id="rId10" display="https://spartaglobal.atlassian.net/browse/B6FPS-13" xr:uid="{A200D8E6-0359-43A3-AAD7-6CA45B950C71}"/>
-    <hyperlink ref="B18" r:id="rId11" display="https://spartaglobal.atlassian.net/browse/B6FPS-14" xr:uid="{0B92B7F3-2174-4EA8-A734-28A145E50AB8}"/>
-    <hyperlink ref="B19" r:id="rId12" display="https://spartaglobal.atlassian.net/browse/B6FPS-15" xr:uid="{760E57DC-F865-49C0-83FE-85462A42F31B}"/>
-    <hyperlink ref="B20" r:id="rId13" display="https://spartaglobal.atlassian.net/browse/B6FPS-16" xr:uid="{A130CDAC-F699-4129-8161-F34CEA6C69C5}"/>
-    <hyperlink ref="B21" r:id="rId14" display="https://spartaglobal.atlassian.net/browse/B6FPS-17" xr:uid="{616F1A20-88EB-48F7-9DE3-0CB13E8E400F}"/>
-    <hyperlink ref="B22" r:id="rId15" display="https://spartaglobal.atlassian.net/browse/B6FPS-18" xr:uid="{CE21B81F-2823-48CD-B083-7618E8777770}"/>
-    <hyperlink ref="B23" r:id="rId16" display="https://spartaglobal.atlassian.net/browse/B6FPS-19" xr:uid="{41597EE2-D20F-4202-A440-860FDA5841E6}"/>
-    <hyperlink ref="B24" r:id="rId17" display="https://spartaglobal.atlassian.net/browse/B6FPS-20" xr:uid="{B33B3EF9-8913-4A48-BD84-C42582FC506B}"/>
-    <hyperlink ref="B25" r:id="rId18" display="https://spartaglobal.atlassian.net/browse/B6FPS-21" xr:uid="{AE1625AC-FDE8-4D6C-BB6D-B90E05557CA9}"/>
-    <hyperlink ref="B26" r:id="rId19" display="https://spartaglobal.atlassian.net/browse/B6FPS-22" xr:uid="{1D18FE3C-CCB4-4464-A859-065AAA037F91}"/>
-    <hyperlink ref="B27" r:id="rId20" xr:uid="{BDEF41A2-FDCE-46ED-A4E5-2AB347DF2CB8}"/>
+    <hyperlink ref="B7" r:id="rId1" display="https://spartaglobal.atlassian.net/browse/B6FPS-3" xr:uid="{AA24682B-817D-4C72-BA13-71F5465D7EC0}"/>
+    <hyperlink ref="B8" r:id="rId2" display="https://spartaglobal.atlassian.net/browse/B6FPS-4" xr:uid="{E2F1ED5A-BA49-4B76-917F-7E50E0F02E8C}"/>
+    <hyperlink ref="B9" r:id="rId3" display="https://spartaglobal.atlassian.net/browse/B6FPS-5" xr:uid="{C274A96F-8A8D-4E0D-A1E3-1B20B5D99045}"/>
+    <hyperlink ref="B10" r:id="rId4" display="https://spartaglobal.atlassian.net/browse/B6FPS-6" xr:uid="{D1B2D301-E886-468E-9D97-194F1FD9FCE7}"/>
+    <hyperlink ref="B11" r:id="rId5" display="https://spartaglobal.atlassian.net/browse/B6FPS-8" xr:uid="{60660AA1-ACFB-4E05-9109-8684F71D93A4}"/>
+    <hyperlink ref="B12" r:id="rId6" display="https://spartaglobal.atlassian.net/browse/B6FPS-9" xr:uid="{AE523E85-00B3-4440-968C-6541B4ECB555}"/>
+    <hyperlink ref="B14" r:id="rId7" display="https://spartaglobal.atlassian.net/browse/B6FPS-10" xr:uid="{5A310C64-DDF4-465E-BF52-51F75B41BAAD}"/>
+    <hyperlink ref="B15" r:id="rId8" display="https://spartaglobal.atlassian.net/browse/B6FPS-11" xr:uid="{09E4DB24-F1D6-42A1-8830-20DAB275B627}"/>
+    <hyperlink ref="B16" r:id="rId9" display="https://spartaglobal.atlassian.net/browse/B6FPS-12" xr:uid="{A41D7781-4996-4D0B-8FA6-8ABFD0517438}"/>
+    <hyperlink ref="B17" r:id="rId10" display="https://spartaglobal.atlassian.net/browse/B6FPS-13" xr:uid="{788C673A-0445-4887-BAC7-7A0584F2B42B}"/>
+    <hyperlink ref="B18" r:id="rId11" display="https://spartaglobal.atlassian.net/browse/B6FPS-14" xr:uid="{87E33F66-5EA1-4AD3-BBE3-ACC63C62D5F7}"/>
+    <hyperlink ref="B19" r:id="rId12" display="https://spartaglobal.atlassian.net/browse/B6FPS-15" xr:uid="{97663123-77B5-4F03-8671-C51F3D14C9B0}"/>
+    <hyperlink ref="B20" r:id="rId13" display="https://spartaglobal.atlassian.net/browse/B6FPS-16" xr:uid="{112426A3-93F8-4442-A8F9-30DA91FF903C}"/>
+    <hyperlink ref="B21" r:id="rId14" display="https://spartaglobal.atlassian.net/browse/B6FPS-17" xr:uid="{B619DF00-B4FC-4E65-B335-73A10D0C6AF5}"/>
+    <hyperlink ref="B22" r:id="rId15" display="https://spartaglobal.atlassian.net/browse/B6FPS-18" xr:uid="{F56E7ADA-57A8-4556-8AF8-4F44389F79CF}"/>
+    <hyperlink ref="B23" r:id="rId16" display="https://spartaglobal.atlassian.net/browse/B6FPS-19" xr:uid="{58609BAF-3576-4E04-88A8-4D0B330CB04E}"/>
+    <hyperlink ref="B24" r:id="rId17" display="https://spartaglobal.atlassian.net/browse/B6FPS-20" xr:uid="{9EECC126-7D5E-485F-963D-A4EB0E5E622E}"/>
+    <hyperlink ref="B25" r:id="rId18" display="https://spartaglobal.atlassian.net/browse/B6FPS-21" xr:uid="{BBC0994F-8F50-455D-AAD5-35E8EC2C0CFE}"/>
+    <hyperlink ref="B26" r:id="rId19" display="https://spartaglobal.atlassian.net/browse/B6FPS-22" xr:uid="{27FA7604-A963-4F22-BFC5-052C510BB727}"/>
+    <hyperlink ref="B27" r:id="rId20" xr:uid="{BC130A94-FA54-48B1-BB7F-230C967E7528}"/>
+    <hyperlink ref="B28" r:id="rId21" display="https://spartaglobal.atlassian.net/browse/B6FPS-24" xr:uid="{B58363BC-52E2-418F-8CB0-E7CE5826C6BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId22"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005EB9DAFD5A3BE841A8C512EE543EFD13" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d6c4d20c3715ec357b2d0b1c18679b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6292cffe-a264-48cd-a2c8-65350280a8ba" xmlns:ns3="91af20cc-6020-4279-8abf-0ebc48e99448" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7b3426d6349095b1800821f3addfe153" ns2:_="" ns3:_="">
     <xsd:import namespace="6292cffe-a264-48cd-a2c8-65350280a8ba"/>
@@ -2054,15 +2188,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64D24B5C-96C5-4BB7-AA34-68C3FD16CA60}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C224ABDD-970A-440D-AC88-F68BBF2E438C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2079,4 +2214,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64D24B5C-96C5-4BB7-AA34-68C3FD16CA60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>